--- a/outputs-HGR-r202/f__Enterobacteriaceae.xlsx
+++ b/outputs-HGR-r202/f__Enterobacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -625,6 +630,11 @@
           <t>g__Proteus</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>g__Proteus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -700,6 +710,11 @@
           <t>g__Proteus</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>g__Proteus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -775,6 +790,11 @@
           <t>g__Providencia</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>g__Providencia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -850,6 +870,11 @@
           <t>g__Proteus</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>g__Proteus</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -925,6 +950,11 @@
           <t>g__Proteus</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>g__Proteus</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -996,6 +1026,11 @@
         <v>0.5523542779706702</v>
       </c>
       <c r="W7" t="inlineStr">
+        <is>
+          <t>g__Proteus</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>g__Proteus</t>
         </is>
